--- a/target/classes/YJtestcase.xlsx
+++ b/target/classes/YJtestcase.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59B430F-9922-4D58-8982-8D9EA9EB5362}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEFEF9F-3D52-41C3-9D1B-CE5B5CA3AF0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15285" windowHeight="2850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,46 @@
   </si>
   <si>
     <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>host</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://test-chappie.mandofin.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/exclude/manager/login.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/plan/create.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://test-mobile.mandofin.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/loan/resolveLoanApply.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +396,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -376,15 +424,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -662,21 +713,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -734,235 +785,302 @@
       <c r="S1" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{7C1F401B-5C6B-4C85-A490-648E2A35808A}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{5F75CF16-1944-4595-90E2-416F4E691116}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{8060A07C-2CEA-4D5D-8343-9CBA6E94B4FB}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{E203595B-5D9E-4DDB-A0C2-09739D6405DE}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{A28FD091-9DD9-4E65-9752-D4160D73753E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>